--- a/results/mp/tinybert/corona/confidence/42/0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,9 +43,6 @@
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -55,100 +52,130 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>free</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>care</t>
+    <t>increase</t>
   </si>
   <si>
     <t>store</t>
   </si>
   <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>.</t>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -506,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,7 +541,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
         <v>22</v>
@@ -575,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -593,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9583333333333334</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -617,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -625,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.5856164383561644</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -643,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.95</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L4">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M4">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -667,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -675,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7402597402597403</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="C5">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D5">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -693,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>40</v>
+        <v>404</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9444444444444444</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -717,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -725,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3605150214592275</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="C6">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="D6">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -743,119 +770,71 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
+        <v>40</v>
+      </c>
+      <c r="M6">
+        <v>40</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0.8482142857142857</v>
+      </c>
+      <c r="L7">
+        <v>95</v>
+      </c>
+      <c r="M7">
+        <v>95</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L8">
         <v>30</v>
       </c>
-      <c r="M6">
+      <c r="M8">
         <v>30</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.2674418604651163</v>
-      </c>
-      <c r="C7">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>63</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <v>0.9375</v>
-      </c>
-      <c r="L7">
-        <v>15</v>
-      </c>
-      <c r="M7">
-        <v>15</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.25</v>
-      </c>
-      <c r="C8">
-        <v>20</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>60</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L8">
-        <v>45</v>
-      </c>
-      <c r="M8">
-        <v>45</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -871,41 +850,17 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1851851851851852</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>110</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -917,21 +872,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8392857142857143</v>
+        <v>0.7890625</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -943,21 +898,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8235294117647058</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -969,15 +924,15 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7777777777777778</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="L12">
         <v>42</v>
@@ -995,21 +950,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7692307692307693</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1021,21 +976,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7586206896551724</v>
+        <v>0.675</v>
       </c>
       <c r="L14">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="M14">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1047,21 +1002,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7068965517241379</v>
+        <v>0.6698113207547169</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1073,21 +1028,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6666666666666666</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1099,21 +1054,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6575342465753424</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L17">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M17">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1125,21 +1080,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18">
+        <v>0.6078431372549019</v>
+      </c>
+      <c r="L18">
         <v>31</v>
       </c>
-      <c r="K18">
-        <v>0.625</v>
-      </c>
-      <c r="L18">
-        <v>15</v>
-      </c>
       <c r="M18">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1151,21 +1106,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6153846153846154</v>
+        <v>0.6</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1177,21 +1132,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1203,21 +1158,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6</v>
+        <v>0.5625</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1229,21 +1184,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5774647887323944</v>
+        <v>0.5274151436031331</v>
       </c>
       <c r="L22">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="M22">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1255,21 +1210,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>90</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1281,21 +1236,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4883720930232558</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L24">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="M24">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1307,21 +1262,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>66</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4861111111111111</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L25">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1333,21 +1288,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4565217391304348</v>
+        <v>0.4305084745762712</v>
       </c>
       <c r="L26">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="M26">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1359,21 +1314,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>50</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4285714285714285</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1385,21 +1340,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.05609756097560976</v>
+        <v>0.3389121338912134</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1411,21 +1366,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>387</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.01374570446735395</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L29">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M29">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1437,59 +1392,371 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>1722</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.01251117068811439</v>
+        <v>0.05145413870246085</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="N30">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>1105</v>
+        <v>848</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.03748733535967579</v>
+      </c>
+      <c r="L31">
+        <v>37</v>
+      </c>
+      <c r="M31">
+        <v>39</v>
+      </c>
+      <c r="N31">
+        <v>0.95</v>
+      </c>
+      <c r="O31">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>0.03666666666666667</v>
+      </c>
+      <c r="L32">
         <v>44</v>
       </c>
-      <c r="K31">
-        <v>0.01096033402922756</v>
-      </c>
-      <c r="L31">
-        <v>21</v>
-      </c>
-      <c r="M31">
-        <v>21</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>1895</v>
+      <c r="M32">
+        <v>44</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33">
+        <v>0.02774694783573807</v>
+      </c>
+      <c r="L33">
+        <v>25</v>
+      </c>
+      <c r="M33">
+        <v>25</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34">
+        <v>0.02022471910112359</v>
+      </c>
+      <c r="L34">
+        <v>54</v>
+      </c>
+      <c r="M34">
+        <v>57</v>
+      </c>
+      <c r="N34">
+        <v>0.95</v>
+      </c>
+      <c r="O34">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35">
+        <v>0.0196479738027016</v>
+      </c>
+      <c r="L35">
+        <v>48</v>
+      </c>
+      <c r="M35">
+        <v>50</v>
+      </c>
+      <c r="N35">
+        <v>0.96</v>
+      </c>
+      <c r="O35">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36">
+        <v>0.01691240242844753</v>
+      </c>
+      <c r="L36">
+        <v>39</v>
+      </c>
+      <c r="M36">
+        <v>42</v>
+      </c>
+      <c r="N36">
+        <v>0.93</v>
+      </c>
+      <c r="O36">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37">
+        <v>0.01642796967144061</v>
+      </c>
+      <c r="L37">
+        <v>39</v>
+      </c>
+      <c r="M37">
+        <v>44</v>
+      </c>
+      <c r="N37">
+        <v>0.89</v>
+      </c>
+      <c r="O37">
+        <v>0.11</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38">
+        <v>0.0157035175879397</v>
+      </c>
+      <c r="L38">
+        <v>25</v>
+      </c>
+      <c r="M38">
+        <v>27</v>
+      </c>
+      <c r="N38">
+        <v>0.93</v>
+      </c>
+      <c r="O38">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39">
+        <v>0.01434853043277019</v>
+      </c>
+      <c r="L39">
+        <v>62</v>
+      </c>
+      <c r="M39">
+        <v>69</v>
+      </c>
+      <c r="N39">
+        <v>0.9</v>
+      </c>
+      <c r="O39">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40">
+        <v>0.01421706047256708</v>
+      </c>
+      <c r="L40">
+        <v>71</v>
+      </c>
+      <c r="M40">
+        <v>73</v>
+      </c>
+      <c r="N40">
+        <v>0.97</v>
+      </c>
+      <c r="O40">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>4923</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K41">
+        <v>0.01168770453482936</v>
+      </c>
+      <c r="L41">
+        <v>25</v>
+      </c>
+      <c r="M41">
+        <v>29</v>
+      </c>
+      <c r="N41">
+        <v>0.86</v>
+      </c>
+      <c r="O41">
+        <v>0.14</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42">
+        <v>0.0103026400515132</v>
+      </c>
+      <c r="L42">
+        <v>32</v>
+      </c>
+      <c r="M42">
+        <v>33</v>
+      </c>
+      <c r="N42">
+        <v>0.97</v>
+      </c>
+      <c r="O42">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K43">
+        <v>0.008525479558225151</v>
+      </c>
+      <c r="L43">
+        <v>44</v>
+      </c>
+      <c r="M43">
+        <v>48</v>
+      </c>
+      <c r="N43">
+        <v>0.92</v>
+      </c>
+      <c r="O43">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>5117</v>
       </c>
     </row>
   </sheetData>
